--- a/client/public/Danh sách học sinh.xlsx
+++ b/client/public/Danh sách học sinh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPT\FA24\PRN231\Project\VEMS\client\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F870C5-2EDD-41DF-8262-374898629A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBB1AD7-C7CA-46B4-94A9-DB5DF15C1461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Thanh</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>Lớp</t>
-  </si>
-  <si>
-    <t>a</t>
   </si>
 </sst>
 </file>
@@ -108,7 +105,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -131,29 +128,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -435,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -448,7 +433,7 @@
     <col min="3" max="3" width="41.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -458,11 +443,8 @@
       <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -472,9 +454,8 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -484,9 +465,8 @@
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -496,9 +476,8 @@
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -508,9 +487,8 @@
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -520,9 +498,8 @@
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -532,12 +509,8 @@
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D1:D7"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>